--- a/static/student.xlsx
+++ b/static/student.xlsx
@@ -5,31 +5,42 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">班级</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -44,10 +55,16 @@
     </r>
   </si>
   <si>
-    <t>计算机科学</t>
-  </si>
-  <si>
-    <r>
+    <t xml:space="preserve">计算机科学</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -63,6 +80,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -78,6 +101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -93,6 +122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -108,6 +143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -123,6 +164,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -138,6 +185,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -153,6 +206,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -168,6 +227,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">学生</t>
     </r>
     <r>
@@ -187,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -215,9 +280,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
+      <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,19 +352,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1255060728745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8744939271255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9271255060729"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,7 +521,34 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>201310</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>201310</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1303</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
